--- a/color_formatted_model_sampling_comparison_updated.xlsx
+++ b/color_formatted_model_sampling_comparison_updated.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill/>
     </fill>
@@ -72,6 +72,12 @@
         <bgColor rgb="00FFB6C1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="00FF69B4"/>
+        <bgColor rgb="00FF69B4"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -91,7 +97,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -102,6 +108,7 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -467,7 +474,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H31"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1383,6 +1390,152 @@
         <v>0.7962</v>
       </c>
     </row>
+    <row r="32">
+      <c r="A32" s="8" t="inlineStr">
+        <is>
+          <t>Tuned Random Forest (top_features2)</t>
+        </is>
+      </c>
+      <c r="B32" s="8" t="inlineStr"/>
+      <c r="C32" s="8" t="n">
+        <v>0.6697</v>
+      </c>
+      <c r="D32" s="8" t="n">
+        <v>0.6974</v>
+      </c>
+      <c r="E32" s="8" t="n">
+        <v>0.6802</v>
+      </c>
+      <c r="F32" s="8" t="n">
+        <v>0.6974</v>
+      </c>
+      <c r="G32" s="8" t="n">
+        <v>0.873</v>
+      </c>
+      <c r="H32" s="8" t="n">
+        <v>0.7137</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="8" t="inlineStr">
+        <is>
+          <t>Tuned Random Forest (top_features2)</t>
+        </is>
+      </c>
+      <c r="B33" s="8" t="inlineStr">
+        <is>
+          <t>Normalization</t>
+        </is>
+      </c>
+      <c r="C33" s="8" t="n">
+        <v>0.6697</v>
+      </c>
+      <c r="D33" s="8" t="n">
+        <v>0.6974</v>
+      </c>
+      <c r="E33" s="8" t="n">
+        <v>0.6802</v>
+      </c>
+      <c r="F33" s="8" t="n">
+        <v>0.6974</v>
+      </c>
+      <c r="G33" s="8" t="n">
+        <v>0.8741</v>
+      </c>
+      <c r="H33" s="8" t="n">
+        <v>0.7148</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8" t="inlineStr">
+        <is>
+          <t>Tuned Random Forest (top_features2)</t>
+        </is>
+      </c>
+      <c r="B34" s="8" t="inlineStr">
+        <is>
+          <t>Oversampling</t>
+        </is>
+      </c>
+      <c r="C34" s="8" t="n">
+        <v>0.6715</v>
+      </c>
+      <c r="D34" s="8" t="n">
+        <v>0.6645</v>
+      </c>
+      <c r="E34" s="8" t="n">
+        <v>0.6673</v>
+      </c>
+      <c r="F34" s="8" t="n">
+        <v>0.6645</v>
+      </c>
+      <c r="G34" s="8" t="n">
+        <v>0.8545</v>
+      </c>
+      <c r="H34" s="8" t="n">
+        <v>0.6858</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="8" t="inlineStr">
+        <is>
+          <t>Tuned Random Forest (top_features2)</t>
+        </is>
+      </c>
+      <c r="B35" s="8" t="inlineStr">
+        <is>
+          <t>Undersampling</t>
+        </is>
+      </c>
+      <c r="C35" s="8" t="n">
+        <v>0.6755</v>
+      </c>
+      <c r="D35" s="8" t="n">
+        <v>0.5526</v>
+      </c>
+      <c r="E35" s="8" t="n">
+        <v>0.5958</v>
+      </c>
+      <c r="F35" s="8" t="n">
+        <v>0.5526</v>
+      </c>
+      <c r="G35" s="8" t="n">
+        <v>0.8488</v>
+      </c>
+      <c r="H35" s="8" t="n">
+        <v>0.7029</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8" t="inlineStr">
+        <is>
+          <t>Tuned Random Forest (top_features2)</t>
+        </is>
+      </c>
+      <c r="B36" s="8" t="inlineStr">
+        <is>
+          <t>SMOTE</t>
+        </is>
+      </c>
+      <c r="C36" s="8" t="n">
+        <v>0.6753</v>
+      </c>
+      <c r="D36" s="8" t="n">
+        <v>0.6447000000000001</v>
+      </c>
+      <c r="E36" s="8" t="n">
+        <v>0.6589</v>
+      </c>
+      <c r="F36" s="8" t="n">
+        <v>0.6447000000000001</v>
+      </c>
+      <c r="G36" s="8" t="n">
+        <v>0.8721</v>
+      </c>
+      <c r="H36" s="8" t="n">
+        <v>0.7174</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/color_formatted_model_sampling_comparison_updated.xlsx
+++ b/color_formatted_model_sampling_comparison_updated.xlsx
@@ -29,7 +29,7 @@
       <b val="1"/>
     </font>
   </fonts>
-  <fills count="9">
+  <fills count="8">
     <fill>
       <patternFill/>
     </fill>
@@ -72,12 +72,6 @@
         <bgColor rgb="00FFB6C1"/>
       </patternFill>
     </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="00FF69B4"/>
-        <bgColor rgb="00FF69B4"/>
-      </patternFill>
-    </fill>
   </fills>
   <borders count="2">
     <border>
@@ -97,7 +91,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
@@ -108,7 +102,6 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -474,7 +467,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H36"/>
+  <dimension ref="A1:H31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -532,19 +525,19 @@
       </c>
       <c r="B2" s="2" t="inlineStr"/>
       <c r="C2" s="2" t="n">
-        <v>0.7604</v>
+        <v>0.7709</v>
       </c>
       <c r="D2" s="2" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7829</v>
       </c>
       <c r="E2" s="2" t="n">
-        <v>0.7644</v>
+        <v>0.7754</v>
       </c>
       <c r="F2" s="2" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7829</v>
       </c>
       <c r="G2" s="2" t="n">
-        <v>0.9378</v>
+        <v>0.9357</v>
       </c>
       <c r="H2" s="2" t="inlineStr"/>
     </row>
@@ -560,19 +553,19 @@
         </is>
       </c>
       <c r="C3" s="2" t="n">
-        <v>0.7604</v>
+        <v>0.7749</v>
       </c>
       <c r="D3" s="2" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7895</v>
       </c>
       <c r="E3" s="2" t="n">
-        <v>0.7644</v>
+        <v>0.7801</v>
       </c>
       <c r="F3" s="2" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7895</v>
       </c>
       <c r="G3" s="2" t="n">
-        <v>0.9383</v>
+        <v>0.9351</v>
       </c>
       <c r="H3" s="2" t="inlineStr"/>
     </row>
@@ -588,19 +581,19 @@
         </is>
       </c>
       <c r="C4" s="2" t="n">
-        <v>0.7703</v>
+        <v>0.8043</v>
       </c>
       <c r="D4" s="2" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.8026</v>
       </c>
       <c r="E4" s="2" t="n">
-        <v>0.7698</v>
+        <v>0.8028999999999999</v>
       </c>
       <c r="F4" s="2" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.8026</v>
       </c>
       <c r="G4" s="2" t="n">
-        <v>0.9335</v>
+        <v>0.9379</v>
       </c>
       <c r="H4" s="2" t="inlineStr"/>
     </row>
@@ -616,19 +609,19 @@
         </is>
       </c>
       <c r="C5" s="2" t="n">
-        <v>0.7866</v>
+        <v>0.7933</v>
       </c>
       <c r="D5" s="2" t="n">
-        <v>0.6645</v>
+        <v>0.6776</v>
       </c>
       <c r="E5" s="2" t="n">
-        <v>0.6752</v>
+        <v>0.6916</v>
       </c>
       <c r="F5" s="2" t="n">
-        <v>0.6645</v>
+        <v>0.6776</v>
       </c>
       <c r="G5" s="2" t="n">
-        <v>0.9258999999999999</v>
+        <v>0.9239000000000001</v>
       </c>
       <c r="H5" s="2" t="inlineStr"/>
     </row>
@@ -644,19 +637,19 @@
         </is>
       </c>
       <c r="C6" s="2" t="n">
-        <v>0.7724</v>
+        <v>0.7692</v>
       </c>
       <c r="D6" s="2" t="n">
-        <v>0.7302999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="E6" s="2" t="n">
-        <v>0.7443</v>
+        <v>0.758</v>
       </c>
       <c r="F6" s="2" t="n">
-        <v>0.7302999999999999</v>
+        <v>0.75</v>
       </c>
       <c r="G6" s="2" t="n">
-        <v>0.9360000000000001</v>
+        <v>0.9366</v>
       </c>
       <c r="H6" s="2" t="inlineStr"/>
     </row>
@@ -668,22 +661,22 @@
       </c>
       <c r="B7" s="3" t="inlineStr"/>
       <c r="C7" s="3" t="n">
-        <v>0.775</v>
+        <v>0.7803</v>
       </c>
       <c r="D7" s="3" t="n">
-        <v>0.7895</v>
+        <v>0.7961</v>
       </c>
       <c r="E7" s="3" t="n">
-        <v>0.7786999999999999</v>
+        <v>0.7842</v>
       </c>
       <c r="F7" s="3" t="n">
-        <v>0.7895</v>
+        <v>0.7961</v>
       </c>
       <c r="G7" s="3" t="n">
-        <v>0.9162</v>
+        <v>0.9173</v>
       </c>
       <c r="H7" s="3" t="n">
-        <v>0.7748</v>
+        <v>0.773</v>
       </c>
     </row>
     <row r="8">
@@ -710,10 +703,10 @@
         <v>0.7829</v>
       </c>
       <c r="G8" s="3" t="n">
-        <v>0.9136</v>
+        <v>0.9146</v>
       </c>
       <c r="H8" s="3" t="n">
-        <v>0.7641</v>
+        <v>0.7605</v>
       </c>
     </row>
     <row r="9">
@@ -728,22 +721,22 @@
         </is>
       </c>
       <c r="C9" s="3" t="n">
-        <v>0.8023</v>
+        <v>0.8028</v>
       </c>
       <c r="D9" s="3" t="n">
-        <v>0.7105</v>
+        <v>0.7171</v>
       </c>
       <c r="E9" s="3" t="n">
-        <v>0.7266</v>
+        <v>0.7321</v>
       </c>
       <c r="F9" s="3" t="n">
-        <v>0.7105</v>
+        <v>0.7171</v>
       </c>
       <c r="G9" s="3" t="n">
-        <v>0.9127</v>
+        <v>0.915</v>
       </c>
       <c r="H9" s="3" t="n">
-        <v>0.7689</v>
+        <v>0.7687</v>
       </c>
     </row>
     <row r="10">
@@ -758,22 +751,22 @@
         </is>
       </c>
       <c r="C10" s="3" t="n">
-        <v>0.8188</v>
+        <v>0.7972</v>
       </c>
       <c r="D10" s="3" t="n">
         <v>0.7105</v>
       </c>
       <c r="E10" s="3" t="n">
-        <v>0.7289</v>
+        <v>0.7256</v>
       </c>
       <c r="F10" s="3" t="n">
         <v>0.7105</v>
       </c>
       <c r="G10" s="3" t="n">
-        <v>0.8984</v>
+        <v>0.9036</v>
       </c>
       <c r="H10" s="3" t="n">
-        <v>0.7509</v>
+        <v>0.7521</v>
       </c>
     </row>
     <row r="11">
@@ -788,22 +781,22 @@
         </is>
       </c>
       <c r="C11" s="3" t="n">
-        <v>0.8013</v>
+        <v>0.8202</v>
       </c>
       <c r="D11" s="3" t="n">
-        <v>0.75</v>
+        <v>0.7368</v>
       </c>
       <c r="E11" s="3" t="n">
-        <v>0.7641</v>
+        <v>0.7546</v>
       </c>
       <c r="F11" s="3" t="n">
-        <v>0.75</v>
+        <v>0.7368</v>
       </c>
       <c r="G11" s="3" t="n">
-        <v>0.9107</v>
+        <v>0.9091</v>
       </c>
       <c r="H11" s="3" t="n">
-        <v>0.773</v>
+        <v>0.7723</v>
       </c>
     </row>
     <row r="12">
@@ -814,22 +807,22 @@
       </c>
       <c r="B12" s="4" t="inlineStr"/>
       <c r="C12" s="4" t="n">
-        <v>0.7497</v>
+        <v>0.7696</v>
       </c>
       <c r="D12" s="4" t="n">
-        <v>0.75</v>
+        <v>0.7632</v>
       </c>
       <c r="E12" s="4" t="n">
-        <v>0.7494</v>
+        <v>0.766</v>
       </c>
       <c r="F12" s="4" t="n">
-        <v>0.75</v>
+        <v>0.7632</v>
       </c>
       <c r="G12" s="4" t="n">
-        <v>0.924</v>
+        <v>0.9187</v>
       </c>
       <c r="H12" s="4" t="n">
-        <v>0.7739</v>
+        <v>0.7618</v>
       </c>
     </row>
     <row r="13">
@@ -844,22 +837,22 @@
         </is>
       </c>
       <c r="C13" s="4" t="n">
-        <v>0.7497</v>
+        <v>0.7696</v>
       </c>
       <c r="D13" s="4" t="n">
-        <v>0.75</v>
+        <v>0.7632</v>
       </c>
       <c r="E13" s="4" t="n">
-        <v>0.7494</v>
+        <v>0.766</v>
       </c>
       <c r="F13" s="4" t="n">
-        <v>0.75</v>
+        <v>0.7632</v>
       </c>
       <c r="G13" s="4" t="n">
-        <v>0.924</v>
+        <v>0.9187</v>
       </c>
       <c r="H13" s="4" t="n">
-        <v>0.7739</v>
+        <v>0.7618</v>
       </c>
     </row>
     <row r="14">
@@ -874,22 +867,22 @@
         </is>
       </c>
       <c r="C14" s="4" t="n">
-        <v>0.7317</v>
+        <v>0.7673</v>
       </c>
       <c r="D14" s="4" t="n">
-        <v>0.7368</v>
+        <v>0.75</v>
       </c>
       <c r="E14" s="4" t="n">
-        <v>0.7336</v>
+        <v>0.7569</v>
       </c>
       <c r="F14" s="4" t="n">
-        <v>0.7368</v>
+        <v>0.75</v>
       </c>
       <c r="G14" s="4" t="n">
-        <v>0.9192</v>
+        <v>0.9179</v>
       </c>
       <c r="H14" s="4" t="n">
-        <v>0.7662</v>
+        <v>0.7655</v>
       </c>
     </row>
     <row r="15">
@@ -904,22 +897,22 @@
         </is>
       </c>
       <c r="C15" s="4" t="n">
-        <v>0.7187</v>
+        <v>0.7154</v>
       </c>
       <c r="D15" s="4" t="n">
-        <v>0.6316000000000001</v>
+        <v>0.625</v>
       </c>
       <c r="E15" s="4" t="n">
-        <v>0.6481</v>
+        <v>0.6468</v>
       </c>
       <c r="F15" s="4" t="n">
-        <v>0.6316000000000001</v>
+        <v>0.625</v>
       </c>
       <c r="G15" s="4" t="n">
-        <v>0.8818</v>
+        <v>0.8822</v>
       </c>
       <c r="H15" s="4" t="n">
-        <v>0.7098</v>
+        <v>0.7109</v>
       </c>
     </row>
     <row r="16">
@@ -934,22 +927,22 @@
         </is>
       </c>
       <c r="C16" s="4" t="n">
-        <v>0.7339</v>
+        <v>0.7618</v>
       </c>
       <c r="D16" s="4" t="n">
-        <v>0.7105</v>
+        <v>0.75</v>
       </c>
       <c r="E16" s="4" t="n">
-        <v>0.7205</v>
+        <v>0.7553</v>
       </c>
       <c r="F16" s="4" t="n">
-        <v>0.7105</v>
+        <v>0.75</v>
       </c>
       <c r="G16" s="4" t="n">
-        <v>0.9182</v>
+        <v>0.9267</v>
       </c>
       <c r="H16" s="4" t="n">
-        <v>0.7673</v>
+        <v>0.7625</v>
       </c>
     </row>
     <row r="17">
@@ -960,22 +953,22 @@
       </c>
       <c r="B17" s="5" t="inlineStr"/>
       <c r="C17" s="5" t="n">
-        <v>0.7723</v>
+        <v>0.7922</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>0.7829</v>
+        <v>0.8092</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>0.7764</v>
+        <v>0.798</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>0.7829</v>
+        <v>0.8092</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>0.9423</v>
+        <v>0.9426</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>0.8052</v>
+        <v>0.8056</v>
       </c>
     </row>
     <row r="18">
@@ -990,22 +983,22 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>0.7737000000000001</v>
+        <v>0.7922</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>0.7895</v>
+        <v>0.8092</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>0.779</v>
+        <v>0.798</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>0.7895</v>
+        <v>0.8092</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>0.9419</v>
+        <v>0.9416</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>0.8047</v>
+        <v>0.8043</v>
       </c>
     </row>
     <row r="19">
@@ -1020,22 +1013,22 @@
         </is>
       </c>
       <c r="C19" s="5" t="n">
-        <v>0.7894</v>
+        <v>0.8055</v>
       </c>
       <c r="D19" s="5" t="n">
         <v>0.7763</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>0.7822</v>
+        <v>0.7876</v>
       </c>
       <c r="F19" s="5" t="n">
         <v>0.7763</v>
       </c>
       <c r="G19" s="5" t="n">
-        <v>0.9394</v>
+        <v>0.9419</v>
       </c>
       <c r="H19" s="5" t="n">
-        <v>0.8078</v>
+        <v>0.8134</v>
       </c>
     </row>
     <row r="20">
@@ -1050,22 +1043,22 @@
         </is>
       </c>
       <c r="C20" s="5" t="n">
-        <v>0.769</v>
+        <v>0.7905</v>
       </c>
       <c r="D20" s="5" t="n">
-        <v>0.6711</v>
+        <v>0.7039</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>0.6808999999999999</v>
+        <v>0.7163</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>0.6711</v>
+        <v>0.7039</v>
       </c>
       <c r="G20" s="5" t="n">
-        <v>0.9225</v>
+        <v>0.9245</v>
       </c>
       <c r="H20" s="5" t="n">
-        <v>0.7731</v>
+        <v>0.7828000000000001</v>
       </c>
     </row>
     <row r="21">
@@ -1080,19 +1073,19 @@
         </is>
       </c>
       <c r="C21" s="5" t="n">
-        <v>0.7934</v>
+        <v>0.7844</v>
       </c>
       <c r="D21" s="5" t="n">
         <v>0.7368</v>
       </c>
       <c r="E21" s="5" t="n">
-        <v>0.7553</v>
+        <v>0.7538</v>
       </c>
       <c r="F21" s="5" t="n">
         <v>0.7368</v>
       </c>
       <c r="G21" s="5" t="n">
-        <v>0.9370000000000001</v>
+        <v>0.9368</v>
       </c>
       <c r="H21" s="5" t="n">
         <v>0.8014</v>
@@ -1106,22 +1099,22 @@
       </c>
       <c r="B22" s="6" t="inlineStr"/>
       <c r="C22" s="6" t="n">
-        <v>0.4727</v>
+        <v>0.5654</v>
       </c>
       <c r="D22" s="6" t="n">
-        <v>0.4737</v>
+        <v>0.5592</v>
       </c>
       <c r="E22" s="6" t="n">
-        <v>0.4722</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="F22" s="6" t="n">
-        <v>0.4737</v>
+        <v>0.5592</v>
       </c>
       <c r="G22" s="6" t="n">
-        <v>0.6833</v>
+        <v>0.7667</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4968</v>
+        <v>0.5673</v>
       </c>
     </row>
     <row r="23">
@@ -1136,22 +1129,22 @@
         </is>
       </c>
       <c r="C23" s="6" t="n">
-        <v>0.7156</v>
+        <v>0.7206</v>
       </c>
       <c r="D23" s="6" t="n">
-        <v>0.6974</v>
+        <v>0.7039</v>
       </c>
       <c r="E23" s="6" t="n">
-        <v>0.7038</v>
+        <v>0.7059</v>
       </c>
       <c r="F23" s="6" t="n">
-        <v>0.6974</v>
+        <v>0.7039</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.8613</v>
+        <v>0.8793</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.6942</v>
+        <v>0.709</v>
       </c>
     </row>
     <row r="24">
@@ -1166,22 +1159,22 @@
         </is>
       </c>
       <c r="C24" s="6" t="n">
-        <v>0.4936</v>
+        <v>0.553</v>
       </c>
       <c r="D24" s="6" t="n">
-        <v>0.3947</v>
+        <v>0.4342</v>
       </c>
       <c r="E24" s="6" t="n">
-        <v>0.4312</v>
+        <v>0.4777</v>
       </c>
       <c r="F24" s="6" t="n">
-        <v>0.3947</v>
+        <v>0.4342</v>
       </c>
       <c r="G24" s="6" t="n">
-        <v>0.643</v>
+        <v>0.7039</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.4852</v>
+        <v>0.5185999999999999</v>
       </c>
     </row>
     <row r="25">
@@ -1196,22 +1189,22 @@
         </is>
       </c>
       <c r="C25" s="6" t="n">
-        <v>0.4393</v>
+        <v>0.4464</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.2697</v>
+        <v>0.2763</v>
       </c>
       <c r="E25" s="6" t="n">
-        <v>0.2979</v>
+        <v>0.3166</v>
       </c>
       <c r="F25" s="6" t="n">
-        <v>0.2697</v>
+        <v>0.2763</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.5846</v>
+        <v>0.6524</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.4006</v>
+        <v>0.4623</v>
       </c>
     </row>
     <row r="26">
@@ -1226,22 +1219,22 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>0.5358000000000001</v>
+        <v>0.5643</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>0.4079</v>
+        <v>0.4605</v>
       </c>
       <c r="E26" s="6" t="n">
-        <v>0.4473</v>
+        <v>0.4985</v>
       </c>
       <c r="F26" s="6" t="n">
-        <v>0.4079</v>
+        <v>0.4605</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.6578000000000001</v>
+        <v>0.727</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.4865</v>
+        <v>0.5394</v>
       </c>
     </row>
     <row r="27">
@@ -1252,22 +1245,22 @@
       </c>
       <c r="B27" s="7" t="inlineStr"/>
       <c r="C27" s="7" t="n">
-        <v>0.7604</v>
+        <v>0.7543</v>
       </c>
       <c r="D27" s="7" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7566000000000001</v>
       </c>
       <c r="E27" s="7" t="n">
-        <v>0.7644</v>
+        <v>0.7465000000000001</v>
       </c>
       <c r="F27" s="7" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7566000000000001</v>
       </c>
       <c r="G27" s="7" t="n">
-        <v>0.9378</v>
+        <v>0.9282</v>
       </c>
       <c r="H27" s="7" t="n">
-        <v>0.7836</v>
+        <v>0.7662</v>
       </c>
     </row>
     <row r="28">
@@ -1282,22 +1275,22 @@
         </is>
       </c>
       <c r="C28" s="7" t="n">
-        <v>0.7604</v>
+        <v>0.7543</v>
       </c>
       <c r="D28" s="7" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7566000000000001</v>
       </c>
       <c r="E28" s="7" t="n">
-        <v>0.7644</v>
+        <v>0.7465000000000001</v>
       </c>
       <c r="F28" s="7" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7566000000000001</v>
       </c>
       <c r="G28" s="7" t="n">
-        <v>0.9383</v>
+        <v>0.9288</v>
       </c>
       <c r="H28" s="7" t="n">
-        <v>0.784</v>
+        <v>0.7685999999999999</v>
       </c>
     </row>
     <row r="29">
@@ -1312,22 +1305,22 @@
         </is>
       </c>
       <c r="C29" s="7" t="n">
-        <v>0.7703</v>
+        <v>0.7573</v>
       </c>
       <c r="D29" s="7" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7632</v>
       </c>
       <c r="E29" s="7" t="n">
-        <v>0.7698</v>
+        <v>0.7586000000000001</v>
       </c>
       <c r="F29" s="7" t="n">
-        <v>0.7697000000000001</v>
+        <v>0.7632</v>
       </c>
       <c r="G29" s="7" t="n">
-        <v>0.9335</v>
+        <v>0.9144</v>
       </c>
       <c r="H29" s="7" t="n">
-        <v>0.7915</v>
+        <v>0.7441</v>
       </c>
     </row>
     <row r="30">
@@ -1342,22 +1335,22 @@
         </is>
       </c>
       <c r="C30" s="7" t="n">
-        <v>0.7645999999999999</v>
+        <v>0.7034</v>
       </c>
       <c r="D30" s="7" t="n">
-        <v>0.6513</v>
+        <v>0.6579</v>
       </c>
       <c r="E30" s="7" t="n">
-        <v>0.6639</v>
+        <v>0.6632</v>
       </c>
       <c r="F30" s="7" t="n">
-        <v>0.6513</v>
+        <v>0.6579</v>
       </c>
       <c r="G30" s="7" t="n">
-        <v>0.9283</v>
+        <v>0.9125</v>
       </c>
       <c r="H30" s="7" t="n">
-        <v>0.7792</v>
+        <v>0.7371</v>
       </c>
     </row>
     <row r="31">
@@ -1372,168 +1365,22 @@
         </is>
       </c>
       <c r="C31" s="7" t="n">
-        <v>0.7901</v>
+        <v>0.7050999999999999</v>
       </c>
       <c r="D31" s="7" t="n">
-        <v>0.7566000000000001</v>
+        <v>0.7039</v>
       </c>
       <c r="E31" s="7" t="n">
-        <v>0.7689</v>
+        <v>0.7045</v>
       </c>
       <c r="F31" s="7" t="n">
-        <v>0.7566000000000001</v>
+        <v>0.7039</v>
       </c>
       <c r="G31" s="7" t="n">
-        <v>0.9353</v>
+        <v>0.9164</v>
       </c>
       <c r="H31" s="7" t="n">
-        <v>0.7962</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" s="8" t="inlineStr">
-        <is>
-          <t>Tuned Random Forest (top_features2)</t>
-        </is>
-      </c>
-      <c r="B32" s="8" t="inlineStr"/>
-      <c r="C32" s="8" t="n">
-        <v>0.6697</v>
-      </c>
-      <c r="D32" s="8" t="n">
-        <v>0.6974</v>
-      </c>
-      <c r="E32" s="8" t="n">
-        <v>0.6802</v>
-      </c>
-      <c r="F32" s="8" t="n">
-        <v>0.6974</v>
-      </c>
-      <c r="G32" s="8" t="n">
-        <v>0.873</v>
-      </c>
-      <c r="H32" s="8" t="n">
-        <v>0.7137</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" s="8" t="inlineStr">
-        <is>
-          <t>Tuned Random Forest (top_features2)</t>
-        </is>
-      </c>
-      <c r="B33" s="8" t="inlineStr">
-        <is>
-          <t>Normalization</t>
-        </is>
-      </c>
-      <c r="C33" s="8" t="n">
-        <v>0.6697</v>
-      </c>
-      <c r="D33" s="8" t="n">
-        <v>0.6974</v>
-      </c>
-      <c r="E33" s="8" t="n">
-        <v>0.6802</v>
-      </c>
-      <c r="F33" s="8" t="n">
-        <v>0.6974</v>
-      </c>
-      <c r="G33" s="8" t="n">
-        <v>0.8741</v>
-      </c>
-      <c r="H33" s="8" t="n">
-        <v>0.7148</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" s="8" t="inlineStr">
-        <is>
-          <t>Tuned Random Forest (top_features2)</t>
-        </is>
-      </c>
-      <c r="B34" s="8" t="inlineStr">
-        <is>
-          <t>Oversampling</t>
-        </is>
-      </c>
-      <c r="C34" s="8" t="n">
-        <v>0.6715</v>
-      </c>
-      <c r="D34" s="8" t="n">
-        <v>0.6645</v>
-      </c>
-      <c r="E34" s="8" t="n">
-        <v>0.6673</v>
-      </c>
-      <c r="F34" s="8" t="n">
-        <v>0.6645</v>
-      </c>
-      <c r="G34" s="8" t="n">
-        <v>0.8545</v>
-      </c>
-      <c r="H34" s="8" t="n">
-        <v>0.6858</v>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="8" t="inlineStr">
-        <is>
-          <t>Tuned Random Forest (top_features2)</t>
-        </is>
-      </c>
-      <c r="B35" s="8" t="inlineStr">
-        <is>
-          <t>Undersampling</t>
-        </is>
-      </c>
-      <c r="C35" s="8" t="n">
-        <v>0.6755</v>
-      </c>
-      <c r="D35" s="8" t="n">
-        <v>0.5526</v>
-      </c>
-      <c r="E35" s="8" t="n">
-        <v>0.5958</v>
-      </c>
-      <c r="F35" s="8" t="n">
-        <v>0.5526</v>
-      </c>
-      <c r="G35" s="8" t="n">
-        <v>0.8488</v>
-      </c>
-      <c r="H35" s="8" t="n">
-        <v>0.7029</v>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" s="8" t="inlineStr">
-        <is>
-          <t>Tuned Random Forest (top_features2)</t>
-        </is>
-      </c>
-      <c r="B36" s="8" t="inlineStr">
-        <is>
-          <t>SMOTE</t>
-        </is>
-      </c>
-      <c r="C36" s="8" t="n">
-        <v>0.6753</v>
-      </c>
-      <c r="D36" s="8" t="n">
-        <v>0.6447000000000001</v>
-      </c>
-      <c r="E36" s="8" t="n">
-        <v>0.6589</v>
-      </c>
-      <c r="F36" s="8" t="n">
-        <v>0.6447000000000001</v>
-      </c>
-      <c r="G36" s="8" t="n">
-        <v>0.8721</v>
-      </c>
-      <c r="H36" s="8" t="n">
-        <v>0.7174</v>
+        <v>0.7429</v>
       </c>
     </row>
   </sheetData>
